--- a/ANN_Modified/Data/Search/manual_search_results_2HL_lr.xlsx
+++ b/ANN_Modified/Data/Search/manual_search_results_2HL_lr.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mostafizor\Documents\Bioprocess Simulation using Machine Learning\ANN_Modified\Data\Search\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{9A543FA5-24C9-4E3E-826D-7AADA9375E2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{684AF8A7-0B82-4E70-A4BF-EC570EBC4AE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="manual_search_results_2HL_lr" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -136,7 +139,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -679,6 +682,1122 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Optimisation</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>manual_search_results_2HL_lr!$B$10:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>manual_search_results_2HL_lr!$C$10:$C$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5.7961077209510098E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.3578594412003796E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.8001200370560299E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9446629881307203E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.8507578928456497E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.7416777290200099E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.4534450682122599E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.2771472256982399E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.3315435354827504E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.4375562693828004E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D2B7-4951-82F4-F89C6AF03B0D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1868211040"/>
+        <c:axId val="1867959872"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1868211040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.0000000000000002E-2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" b="1"/>
+                  <a:t>Learning Rate</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1867959872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1.0000000000000002E-3"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1867959872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" b="1"/>
+                  <a:t>Average MSE</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.7807456872565387E-2"/>
+              <c:y val="0.32220513337335344"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1868211040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26B41346-6983-4DAF-B094-363B803EAA1A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="manual_search_results_1HL_lr_GL"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="C1">
+            <v>1E-4</v>
+          </cell>
+          <cell r="D1">
+            <v>6.8568910000000004E-3</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="C2">
+            <v>2.0000000000000001E-4</v>
+          </cell>
+          <cell r="D2">
+            <v>5.1531290000000002E-3</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="C3">
+            <v>2.9999999999999997E-4</v>
+          </cell>
+          <cell r="D3">
+            <v>4.4554434999999996E-3</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="C4">
+            <v>4.0000000000000002E-4</v>
+          </cell>
+          <cell r="D4">
+            <v>4.1812969999999996E-3</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="C5">
+            <v>5.0000000000000001E-4</v>
+          </cell>
+          <cell r="D5">
+            <v>4.213357E-3</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="C6">
+            <v>5.9999999999999995E-4</v>
+          </cell>
+          <cell r="D6">
+            <v>4.2478000000000004E-3</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7">
+            <v>6.9999999999999999E-4</v>
+          </cell>
+          <cell r="D7">
+            <v>4.1683972999999996E-3</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8">
+            <v>8.0000000000000004E-4</v>
+          </cell>
+          <cell r="D8">
+            <v>3.9642606999999996E-3</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="C9">
+            <v>8.9999999999999998E-4</v>
+          </cell>
+          <cell r="D9">
+            <v>3.9105010000000003E-3</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="C10">
+            <v>1E-3</v>
+          </cell>
+          <cell r="D10">
+            <v>4.2902482999999996E-3</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -977,11 +2096,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B12:B13"/>
+      <selection activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -989,162 +2108,249 @@
     <col min="1" max="1" width="38.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>2.9999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>4.0000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>5.9999999999999995E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>6.9999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>8.0000000000000004E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>8.9999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>1E-3</v>
+      </c>
+      <c r="C10">
+        <v>5.7961077209510098E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>2E-3</v>
+      </c>
+      <c r="C11">
+        <v>6.3578594412003796E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C12">
+        <v>5.8001200370560299E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C13">
+        <v>4.9446629881307203E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C14">
+        <v>4.8507578928456497E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C15">
+        <v>4.7416777290200099E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="C16">
+        <v>4.4534450682122599E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C17">
+        <v>4.2771472256982399E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="C18">
+        <v>4.3315435354827504E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>0.01</v>
+      </c>
+      <c r="C19">
+        <v>4.4375562693828004E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -1176,5 +2382,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>